--- a/classfiers/bottleneck/svm/bottleneck-svm-linear-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2405063291139241</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3877551020408164</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8821938022626661</v>
+        <v>0.9689106487148103</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995081160846041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.3888888888888889</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9868217054263565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0.6153846153846153</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9247144340602284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2307692307692308</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9363966770508827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6498106675321865</v>
+        <v>0.8355140186915888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5376359192027395</v>
+        <v>0.5794470149733308</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9459269469769476</v>
+        <v>0.993782129742962</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/bottleneck-svm-linear-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1775700934579439</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9689106487148103</v>
+        <v>0.9758620689655172</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9758620689655173</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8750000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6153846153846153</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8355140186915888</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5794470149733308</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.993782129742962</v>
+        <v>0.9903448275862068</v>
       </c>
     </row>
   </sheetData>
